--- a/preprocessing_scripts/SummaryDataMongoDBToExcel2.xlsx
+++ b/preprocessing_scripts/SummaryDataMongoDBToExcel2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshahindupur/Downloads/RA_Online_Instrument/preprocessing_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F5FA8-EA8C-3B4B-91E8-A38520E017B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B309331-80FC-F546-BF48-2198A3580C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="432">
   <si>
     <t>prolific_id</t>
   </si>
@@ -43,6 +43,15 @@
     <t>Rotation_Test_Bonus</t>
   </si>
   <si>
+    <t>Rotation_Test_1_Each_Question_Score</t>
+  </si>
+  <si>
+    <t>Rotation_Test_2_Each_Question_Score</t>
+  </si>
+  <si>
+    <t>Financial_Literacy_Score</t>
+  </si>
+  <si>
     <t>5563984afdf99b672b5749b6</t>
   </si>
   <si>
@@ -52,439 +61,1255 @@
     <t>failed</t>
   </si>
   <si>
+    <t>[4, 5, 4, 4, 7, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 6, 4, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>57b39622f67ddc0001dea5fd</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 5, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 4, 5, 4, 5, 5, 2]</t>
+  </si>
+  <si>
     <t>58adfc6e7cf56d0001f931a2</t>
   </si>
   <si>
+    <t>[4, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 3, 1, 5, 0, 0]</t>
+  </si>
+  <si>
     <t>596a4e2c2dcbae0001d961d2</t>
   </si>
   <si>
+    <t>[5, 7, 4, 3, 3, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>5b16d24d388d8b00014fa6e6</t>
   </si>
   <si>
+    <t>[4, 6, 4, 4, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 4, 5, 7, 5, 2, 2, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>5b967e547840dc0001e3392f</t>
   </si>
   <si>
+    <t>[4, 6, 4, 1, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 3, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>5c67c5d4085e6a0001fed61b</t>
   </si>
   <si>
+    <t>[4, 3, 6, 5, 4, 5, 3, 5, 4, 6]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4, 4, 6, 4, 2, 6, 2, 3]</t>
+  </si>
+  <si>
     <t>5c6a36214fbf270001311702</t>
   </si>
   <si>
+    <t>[4, 5, 4, 2, 4, 4, 6, 3, 4, 0]</t>
+  </si>
+  <si>
+    <t>[6, 6, 5, 4, 5, 3, 3, 3, 6, 4]</t>
+  </si>
+  <si>
     <t>5d654282986878001c2a5db7</t>
   </si>
   <si>
+    <t>[3, 6, 4, 3, 5, 4, 5, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 4, 1, 1, 0, 0]</t>
+  </si>
+  <si>
     <t>5d934d95c6a8b20014a0351a</t>
   </si>
   <si>
+    <t>[5, 5, 3, 3, 4, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>5e3f4c676d06fc1b240e6021</t>
   </si>
   <si>
+    <t>[2, 5, 5, 5, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 3, 3, 2, 6, 5, 5, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>5eb693937a030e5923b44068</t>
   </si>
   <si>
+    <t>[4, 2, 3, 3, 4, 4, 5, 2, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 6, 3, 6, 3, 6, 2, 4, 5]</t>
+  </si>
+  <si>
     <t>5fa4c21a04bc5912180291bc</t>
   </si>
   <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 4, 3, 1, 0, 3, 0]</t>
+  </si>
+  <si>
     <t>609c6cc79875c8f0ba5d2242</t>
   </si>
   <si>
+    <t>[4, 4, 4, 4, 4, 5, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 4, 4, 5, 4, 4, 6, 8, 1]</t>
+  </si>
+  <si>
     <t>60b5e7e55c86e78d28be89ce</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 5, 4, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>60fd6618f9a377f54dcdf318</t>
   </si>
   <si>
+    <t>[4, 2, 6, 3, 4, 3, 6, 6, 6, 5]</t>
+  </si>
+  <si>
+    <t>[4, 4, 2, 3, 4, 1, 5, 5, 3, 4]</t>
+  </si>
+  <si>
     <t>60ff58f2c619f3476d7b50fa</t>
   </si>
   <si>
     <t>615bb35e52d50aa9a2ae6747</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 4, 6, 2, 4, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>615dbec57d764bf5ab0a56e5</t>
   </si>
   <si>
+    <t>[4, 3, 5, 3, 4, 5, 6, 6, 6, 4]</t>
+  </si>
+  <si>
+    <t>[3, 4, 3, 7, 4, 2, 6, 7, 0, 3]</t>
+  </si>
+  <si>
     <t>62cd43d66c2dd7ae9ab53ae7</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 3, 4, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 4, 3, 3, 5, 0]</t>
+  </si>
+  <si>
     <t>631c8e97db06f601f81bd82f</t>
   </si>
   <si>
+    <t>[3, 5, 5, 4, 4, 5, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 6, 4, 4, 4, 3, 1, 0, 0]</t>
+  </si>
+  <si>
     <t>634696400ff1ac25ed01ad11</t>
   </si>
   <si>
+    <t>[4, 4, 4, 3, 4, 5, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 3, 4, 4, 2, 6, 1, 0]</t>
+  </si>
+  <si>
     <t>63614899ad49a91f1ef09067</t>
   </si>
   <si>
+    <t>[4, 4, 4, 3, 4, 4, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 6, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>63ea4d3b920d683ac61a1ea0</t>
   </si>
   <si>
     <t>6422f34be2b8257efb345837</t>
   </si>
   <si>
+    <t>[5, 5, 4, 5, 5, 4, 3, 5, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 6, 2, 5, 4, 6, 3, 5, 3, 1]</t>
+  </si>
+  <si>
     <t>64d53aae0f3f7317f6eb617e</t>
   </si>
   <si>
+    <t>[4, 5, 4, 3, 4, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 5, 4, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>650dc2def1256066e9516b52</t>
   </si>
   <si>
     <t>656a45f50e3a147cd0cb8216</t>
   </si>
   <si>
+    <t>[4, 4, 4, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 5, 4, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>65e615620fd6a1c087dafc48</t>
   </si>
   <si>
+    <t>[4, 4, 5, 3, 6, 4, 4, 5, 4, 3]</t>
+  </si>
+  <si>
+    <t>[3, 4, 2, 3, 4, 5, 3, 5, 5, 5]</t>
+  </si>
+  <si>
     <t>661770012a3c83b4bdaff645</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 4, 2, 4, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 5, 4, 4, 4, 3, 4, 0, 0]</t>
+  </si>
+  <si>
     <t>66231fc6e1ecba676935943a</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 5, 4, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 4, 4, 1, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66294441f6545cc65fd7e23f</t>
   </si>
   <si>
+    <t>[8, 6, 5, 4, 4, 4, 3, 4, 0, 0]</t>
+  </si>
+  <si>
     <t>66355854d9289d700ee6efb8</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 6, 5, 4, 4, 4, 3, 4, 2, 0]</t>
+  </si>
+  <si>
     <t>66376ada52c39f524ab6f827</t>
   </si>
   <si>
+    <t>[5, 2, 2, 2, 5, 4, 5, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 5, 3, 5, 4, 5, 3, 3, 5]</t>
+  </si>
+  <si>
     <t>663cd0ab9a13d177b358f8f1</t>
   </si>
   <si>
+    <t>[6, 3, 3, 3, 6, 3, 6, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 3, 6, 3, 6, 4, 5, 2, 4, 4]</t>
+  </si>
+  <si>
     <t>664644138e5743a320b474c9</t>
   </si>
   <si>
+    <t>[4, 4, 5, 8, 3, 5, 5, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3, 5, 5, 0, 4, 4, 4, 1]</t>
+  </si>
+  <si>
     <t>664fa9a4f946a81722b3f1c7</t>
   </si>
   <si>
+    <t>[4, 4, 4, 2, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 1, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6658d3384552a75abbc15f10</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 5, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 4, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>666fb6f24d1c14f333eb4a0a</t>
   </si>
   <si>
+    <t>[4, 3, 4, 3, 4, 4, 5, 2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 5, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6673beb472e3c2b594f05d39</t>
   </si>
   <si>
+    <t>[4, 5, 5, 3, 5, 4, 4, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[6, 6, 5, 5, 5, 4, 8, 6, 5, 3]</t>
+  </si>
+  <si>
     <t>66821bd8c0252a33b4c4390f</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 4, 5, 2, 3, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 3, 4, 3, 5, 2, 0]</t>
+  </si>
+  <si>
     <t>6682fbc595609e3f88048a53</t>
   </si>
   <si>
+    <t>[5, 5, 4, 3, 6, 5, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 3, 5, 3, 3, 1, 0, 0]</t>
+  </si>
+  <si>
     <t>668bf688d58206e61f399a88</t>
   </si>
   <si>
+    <t>[3, 2, 3, 6, 3, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 5, 5, 3, 4, 1, 4, 3, 3]</t>
+  </si>
+  <si>
     <t>668ebf594982c57c983cd910</t>
   </si>
   <si>
     <t>66a7afd2842711e82d35ac4d</t>
   </si>
   <si>
+    <t>[6, 5, 5, 4, 7, 4, 6, 5, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 5, 5, 4, 3, 6, 3, 4, 4, 3]</t>
+  </si>
+  <si>
     <t>66b19504b269527cc1b37681</t>
   </si>
   <si>
+    <t>[3, 5, 3, 2, 3, 2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 6, 2, 5, 4, 5, 4, 6, 6, 3]</t>
+  </si>
+  <si>
     <t>66b6cb18cc43c649a5917319</t>
   </si>
   <si>
+    <t>[4, 6, 4, 2, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 5, 5, 4, 4, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66bcffc3e6f77501141b3d0f</t>
   </si>
   <si>
+    <t>[3, 4, 4, 3, 4, 3, 4, 3, 2, 3]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 5, 4, 3, 6, 0, 0]</t>
+  </si>
+  <si>
     <t>66c30da59470c6be1190450b</t>
   </si>
   <si>
+    <t>[4, 6, 3, 1, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 7, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66c7f280d6cde03f250ffded</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 1, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66c8ebb8c2c8d2b4d0424245</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 0, 5, 4, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66ce77e3d21bb5b5d6a83d37</t>
   </si>
   <si>
+    <t>[3, 4, 4, 2, 3, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 4, 4, 5, 4, 3, 6, 0, 0]</t>
+  </si>
+  <si>
     <t>66d1c216f7c6746d8edc3acd</t>
   </si>
   <si>
+    <t>[3, 5, 4, 1, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66d36598db306c67c37bde18</t>
   </si>
   <si>
+    <t>[4, 6, 4, 4, 5, 3, 5, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 5, 4, 4, 3, 3, 5, 4]</t>
+  </si>
+  <si>
     <t>66d66c5428ff7103f6411bff</t>
   </si>
   <si>
+    <t>[5, 5, 4, 4, 8, 4, 5, 3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 4, 3, 5, 7, 2, 6, 4, 3, 5]</t>
+  </si>
+  <si>
     <t>66d9fc2d2b46f520118ea65f</t>
   </si>
   <si>
+    <t>[8, 6, 4, 4, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66dc48cea9a85fe230c06b5f</t>
   </si>
   <si>
+    <t>[5, 2, 4, 3, 7, 3, 4, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 4, 4, 4, 4, 3, 4, 6, 0]</t>
+  </si>
+  <si>
     <t>66dcb0cdca72ab09681a7d37</t>
   </si>
   <si>
+    <t>[6, 5, 2, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 4, 2, 4, 5, 3, 2, 3, 6, 6]</t>
+  </si>
+  <si>
     <t>66dd097265650e0dec23231f</t>
   </si>
   <si>
+    <t>[4, 5, 4, 3, 0, 5, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 0, 3, 1, 3, 0]</t>
+  </si>
+  <si>
     <t>66e001fd640729704f9620a2</t>
   </si>
   <si>
+    <t>[3, 5, 4, 3, 5, 4, 5, 5, 4, 1]</t>
+  </si>
+  <si>
+    <t>[2, 6, 4, 4, 4, 5, 5, 4, 6, 3]</t>
+  </si>
+  <si>
     <t>66e18aed7a77c82578abfbab</t>
   </si>
   <si>
+    <t>[4, 6, 2, 5, 6, 6, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 2, 5, 5, 5, 4, 2, 4]</t>
+  </si>
+  <si>
     <t>66e8f81e357d882730f18be0</t>
   </si>
   <si>
+    <t>[3, 4, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 4, 6, 2, 5, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66eeb98c2a43ecdeeb138455</t>
   </si>
   <si>
+    <t>[1, 3, 6, 5, 4, 3, 6, 3, 4, 2]</t>
+  </si>
+  <si>
+    <t>[4, 3, 6, 2, 7, 5, 6, 5, 6, 4]</t>
+  </si>
+  <si>
     <t>66f0bbf2ad2ccf85f492cbcb</t>
   </si>
   <si>
+    <t>[3, 5, 4, 1, 4, 4, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 6, 5, 4, 5, 4, 4, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66f75ca6c63db2214194b1cc</t>
   </si>
   <si>
+    <t>[4, 7, 4, 3, 5, 5, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 5, 4, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>66f8522292767238ed42ebbd</t>
   </si>
   <si>
+    <t>[8, 6, 5, 4, 3, 4, 3, 5, 5, 3]</t>
+  </si>
+  <si>
     <t>66f94259c9657cbd2194b163</t>
   </si>
   <si>
+    <t>[6, 4, 3, 4, 7, 4, 3, 4, 3, 1]</t>
+  </si>
+  <si>
+    <t>[5, 2, 5, 3, 6, 4, 3, 3, 4, 3]</t>
+  </si>
+  <si>
     <t>66fafb2e9a9131b2fc823cf5</t>
   </si>
   <si>
+    <t>[4, 6, 5, 0, 5, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 6, 3, 3, 5, 4, 1, 0, 4, 5]</t>
+  </si>
+  <si>
     <t>66fb12ba2bfd1e0379ced77c</t>
   </si>
   <si>
+    <t>[6, 4, 0, 4, 3, 4, 3, 5, 4, 4]</t>
+  </si>
+  <si>
+    <t>[2, 5, 4, 5, 8, 4, 4, 6, 6, 2]</t>
+  </si>
+  <si>
     <t>66fd8c344684de2f546c4ac7</t>
   </si>
   <si>
+    <t>[4, 3, 4, 3, 5, 3, 6, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 2, 6, 4, 6, 4, 4, 3, 4, 0]</t>
+  </si>
+  <si>
     <t>66fde9d61fb476db38fe17a2</t>
   </si>
   <si>
+    <t>[4, 6, 4, 2, 4, 3, 5, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 4, 5, 2, 4, 5, 4]</t>
+  </si>
+  <si>
     <t>6700d6aca79c6b2534f6292c</t>
   </si>
   <si>
+    <t>[4, 2, 4, 3, 6, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 6, 4, 4, 4, 3, 4, 6, 5, 4]</t>
+  </si>
+  <si>
     <t>6701206a49833a2065d10763</t>
   </si>
   <si>
+    <t>[4, 5, 3, 2, 4, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[6, 7, 6, 4, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6702c5afa1d784dafb8466b2</t>
   </si>
   <si>
+    <t>[4, 4, 3, 3, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 3, 4, 5, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67038a1c7497dbfeaa1581cd</t>
   </si>
   <si>
+    <t>[4, 3, 4, 3, 4, 5, 3, 5, 5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 8, 3, 4, 2, 3, 3, 5, 5]</t>
+  </si>
+  <si>
     <t>6705565ffd67124adcd513ec</t>
   </si>
   <si>
+    <t>[5, 4, 4, 4, 6, 5, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 3, 4, 5, 6, 2, 3, 5, 3]</t>
+  </si>
+  <si>
     <t>6709224f70eacdb20761ae3c</t>
   </si>
   <si>
+    <t>[4, 4, 4, 2, 0, 0, 1, 4, 4, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 3, 7, 4, 6, 4, 4, 6, 4]</t>
+  </si>
+  <si>
     <t>670b51569bc4cb66e1a4bdca</t>
   </si>
   <si>
+    <t>[4, 2, 4, 3, 5, 3, 2, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 6, 3, 7, 4, 6, 2, 0, 0]</t>
+  </si>
+  <si>
     <t>670bf6142a323a5686f2dad6</t>
   </si>
   <si>
+    <t>[4, 2, 4, 4, 5, 3, 4, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 6, 4, 4, 6, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
     <t>670d8b142f87173ffe3b4763</t>
   </si>
   <si>
+    <t>[4, 6, 4, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3, 4, 3, 4, 2, 6, 5, 0]</t>
+  </si>
+  <si>
     <t>671025e7fc447894a20e897b</t>
   </si>
   <si>
+    <t>[5, 4, 2, 4, 3, 3, 3, 4, 5, 3]</t>
+  </si>
+  <si>
+    <t>[4, 6, 5, 2, 4, 6, 5, 5, 3, 3]</t>
+  </si>
+  <si>
     <t>67104869a47a61b561900be7</t>
   </si>
   <si>
+    <t>[4, 4, 4, 3, 5, 4, 5, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 4, 3, 2, 0, 0]</t>
+  </si>
+  <si>
     <t>671165ce01cd9c2699b90dc1</t>
   </si>
   <si>
+    <t>[4, 2, 4, 2, 7, 4, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 5, 5, 4, 6, 5, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>671813a64cc728d09ef7499d</t>
   </si>
   <si>
+    <t>[3, 4, 1, 6, 3, 3, 5, 4, 4, 3]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 3, 3, 2, 2, 6, 7, 3]</t>
+  </si>
+  <si>
     <t>6718c38273994dd090608e60</t>
   </si>
   <si>
+    <t>[4, 3, 5, 2, 2, 2, 4, 5, 2, 7]</t>
+  </si>
+  <si>
+    <t>[1, 4, 2, 2, 5, 5, 5, 2, 3, 6]</t>
+  </si>
+  <si>
     <t>671974552520eaa83a7ce063</t>
   </si>
   <si>
     <t>671aa0b37e9aff0fef12cc35</t>
   </si>
   <si>
+    <t>[4, 6, 4, 7, 5, 6, 6, 5, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 6, 6, 3, 4, 2, 2, 4, 5, 0]</t>
+  </si>
+  <si>
     <t>671bb583832abc2b597f794d</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 8, 4, 5, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 3, 3, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>671c91189c7272293e7fc44f</t>
   </si>
   <si>
+    <t>[3, 7, 4, 6, 3, 6, 5, 3, 5, 2]</t>
+  </si>
+  <si>
+    <t>[3, 4, 4, 6, 6, 1, 3, 6, 3, 0]</t>
+  </si>
+  <si>
     <t>671d54a9f1b8f62b62dbcc7e</t>
   </si>
   <si>
+    <t>[4, 4, 4, 2, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 3, 5, 4, 3, 3, 4, 7, 5, 1]</t>
+  </si>
+  <si>
     <t>671de39e2db464f9c4e60164</t>
   </si>
   <si>
+    <t>[4, 0, 4, 4, 7, 4, 5, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 5, 4, 3, 4, 2, 1, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>671e70010b8f04850445045f</t>
   </si>
   <si>
+    <t>[4, 2, 6, 6, 6, 4, 5, 1, 4, 3]</t>
+  </si>
+  <si>
+    <t>[6, 3, 5, 3, 2, 3, 3, 3, 6, 5]</t>
+  </si>
+  <si>
     <t>671fa09e15ebe028cdf11d91</t>
   </si>
   <si>
     <t>6720378a683a5d8a933493fb</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 4, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 5, 5, 2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67220499981821552c14d06d</t>
   </si>
   <si>
+    <t>[3, 4, 2, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 4, 6, 4, 4, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67248f60a306f3f8b69fd56d</t>
   </si>
   <si>
+    <t>[5, 4, 2, 4, 2, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 5, 3, 3, 3, 6, 6, 3, 3, 3]</t>
+  </si>
+  <si>
     <t>6724d8a27a424e1dd3107266</t>
   </si>
   <si>
+    <t>[6, 3, 3, 4, 3, 5, 6, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 3, 1, 6, 2, 5, 3, 8, 3]</t>
+  </si>
+  <si>
     <t>6725006b1128706bbaf567d4</t>
   </si>
   <si>
+    <t>[3, 4, 5, 5, 4, 3, 4, 4, 3, 4]</t>
+  </si>
+  <si>
+    <t>[5, 3, 4, 2, 5, 2, 4, 7, 5, 4]</t>
+  </si>
+  <si>
     <t>6725077a1282f381563e5fdd</t>
   </si>
   <si>
+    <t>[5, 3, 3, 3, 5, 3, 5, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[6, 3, 1, 3, 4, 3, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67250c5fe10ec4aefdb022d7</t>
   </si>
   <si>
+    <t>[4, 6, 4, 4, 6, 4, 4, 3, 4, 0]</t>
+  </si>
+  <si>
+    <t>[5, 5, 3, 3, 3, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6725eec99d93d249247afa9f</t>
   </si>
   <si>
+    <t>[2, 3, 4, 3, 1, 3, 6, 3, 4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 2, 2, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6725f5c628ac0ee83bb0aae2</t>
   </si>
   <si>
+    <t>[4, 3, 4, 0, 5, 2, 6, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[5, 4, 6, 2, 4, 1, 5, 5, 0, 0]</t>
+  </si>
+  <si>
     <t>6725fb8275dbe73916758086</t>
   </si>
   <si>
+    <t>[2, 3, 3, 2, 4, 3, 6, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6725fcec0e5d1538ef9977af</t>
   </si>
   <si>
+    <t>[2, 7, 4, 5, 4, 4, 4, 4, 7, 5]</t>
+  </si>
+  <si>
+    <t>[4, 5, 5, 2, 6, 3, 4, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67274a937bc73438d89976b8</t>
   </si>
   <si>
+    <t>[5, 3, 3, 3, 7, 6, 2, 4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 5, 4, 3, 3, 6, 3, 4]</t>
+  </si>
+  <si>
     <t>67276794b9b997dd85a42f9c</t>
   </si>
   <si>
+    <t>[6, 3, 5, 4, 6, 2, 7, 3, 2, 3]</t>
+  </si>
+  <si>
+    <t>[6, 2, 4, 1, 5, 4, 4, 5, 5, 6]</t>
+  </si>
+  <si>
     <t>6727df4b254938f87351cb40</t>
   </si>
   <si>
+    <t>[5, 5, 4, 4, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 5, 3, 4, 4, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672836b205467639aeee468e</t>
   </si>
   <si>
+    <t>[4, 5, 4, 2, 3, 4, 4, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6728ae9120bb974219a023e9</t>
   </si>
   <si>
+    <t>[4, 3, 4, 3, 3, 5, 6, 2, 0, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 4, 4, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6728c466e56e166bfe9de02c</t>
   </si>
   <si>
+    <t>[7, 3, 3, 3, 5, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 6, 6, 3, 4, 6, 5, 5, 0, 0]</t>
+  </si>
+  <si>
     <t>6729136bb1df1c050249f3e7</t>
   </si>
   <si>
+    <t>[6, 4, 3, 2, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 3, 5, 3, 3, 2, 4, 5, 6, 3]</t>
+  </si>
+  <si>
     <t>6729b6604eb8f36e297b0295</t>
   </si>
   <si>
+    <t>[3, 4, 4, 3, 3, 6, 5, 6, 3, 2]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 4, 4, 4, 6, 5, 4]</t>
+  </si>
+  <si>
     <t>6729ed0d4579e459ea3b84a3</t>
   </si>
   <si>
+    <t>[5, 5, 3, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 6, 4, 5, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672ab38f104e8899317d9fda</t>
   </si>
   <si>
+    <t>[5, 3, 4, 4, 4, 4, 5, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 5, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672cb06bb5a379b2b0d7730d</t>
   </si>
   <si>
+    <t>[5, 4, 4, 3, 2, 6, 5, 2, 3, 0]</t>
+  </si>
+  <si>
+    <t>[5, 4, 3, 4, 5, 2, 2, 3, 2, 2]</t>
+  </si>
+  <si>
     <t>672e0dc3332e12d90043de24</t>
   </si>
   <si>
+    <t>[5, 4, 1, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 6, 0, 4, 5, 0, 1, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672e37ef780a7a1538735b65</t>
   </si>
   <si>
+    <t>[5, 3, 3, 5, 6, 1, 5, 2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[6, 5, 6, 5, 6, 0, 3, 3, 4, 4]</t>
+  </si>
+  <si>
     <t>672f334ec43661aabd6e28dc</t>
   </si>
   <si>
+    <t>[4, 3, 4, 3, 5, 4, 4, 1, 3, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 8, 3, 3, 2, 6, 2, 4, 0]</t>
+  </si>
+  <si>
     <t>672f46958f6daac3c8e3bb7a</t>
   </si>
   <si>
+    <t>[4, 6, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672f5d9e39d2d29090ebbb30</t>
   </si>
   <si>
+    <t>[5, 4, 4, 3, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>672fd80c178640c4588cfc9a</t>
   </si>
   <si>
+    <t>[4, 4, 4, 0, 4, 4, 4, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 5, 4, 3, 4, 0, 0]</t>
+  </si>
+  <si>
     <t>6730a0335a85fe6c6ed21279</t>
   </si>
   <si>
+    <t>[4, 6, 4, 3, 3, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 3, 5, 4, 3, 1, 0, 0]</t>
+  </si>
+  <si>
     <t>673106bb7e10c3728463d5e4</t>
   </si>
   <si>
+    <t>[4, 6, 4, 2, 4, 4, 5, 1, 4, 1]</t>
+  </si>
+  <si>
+    <t>[7, 6, 5, 4, 3, 4, 3, 5, 5, 1]</t>
+  </si>
+  <si>
     <t>6732fa40e490564b4205e473</t>
   </si>
   <si>
+    <t>[4, 5, 4, 4, 3, 4, 5, 2, 3, 2]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 5, 4, 3, 4, 2, 0]</t>
+  </si>
+  <si>
     <t>673436311530d29e66cf221c</t>
   </si>
   <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6734c0f4dece66870cdb4897</t>
   </si>
   <si>
+    <t>[4, 6, 4, 5, 3, 5, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 3, 4, 4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67355b35633c57941ef4770e</t>
   </si>
   <si>
+    <t>[4, 5, 4, 3, 5, 4, 5, 2, 4, 1]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 6, 4, 4, 3, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>6737386c9d5608c43d6fdc2c</t>
   </si>
   <si>
+    <t>[6, 3, 2, 2, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 5, 7, 4, 0, 0, 3, 0, 4, 5]</t>
+  </si>
+  <si>
     <t>67373b81834499a073b86c6e</t>
   </si>
   <si>
+    <t>[3, 4, 4, 4, 4, 6, 5, 5, 2, 3]</t>
+  </si>
+  <si>
+    <t>[3, 5, 5, 0, 5, 3, 4, 4, 5, 5]</t>
+  </si>
+  <si>
     <t>6737a806f29cc8b5d0a6977d</t>
   </si>
   <si>
+    <t>[5, 6, 3, 3, 4, 4, 6, 4, 3, 0]</t>
+  </si>
+  <si>
+    <t>[5, 3, 3, 2, 4, 3, 0, 4, 0, 3]</t>
+  </si>
+  <si>
     <t>6737f7afd0ce05cea7aea4d0</t>
   </si>
   <si>
+    <t>[6, 6, 2, 4, 2, 4, 6, 4, 4, 5]</t>
+  </si>
+  <si>
+    <t>[4, 2, 3, 1, 6, 2, 5, 4, 3, 4]</t>
+  </si>
+  <si>
     <t>67399d07ed1b0189b74d5232</t>
   </si>
   <si>
+    <t>[3, 6, 4, 3, 3, 4, 5, 4, 5, 1]</t>
+  </si>
+  <si>
+    <t>[8, 6, 4, 4, 5, 3, 2, 7, 2, 3]</t>
+  </si>
+  <si>
     <t>673a15123855c05829f16385</t>
   </si>
   <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 5, 3, 5, 4, 2, 0, 4, 3, 5]</t>
+  </si>
+  <si>
     <t>673af5ecf4a6d0b964c9d193</t>
   </si>
   <si>
+    <t>[4, 2, 4, 1, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 3, 3, 1, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>673b061ce701dc4bc75de9c6</t>
   </si>
   <si>
+    <t>[4, 2, 3, 3, 5, 3, 6, 4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 3, 5, 2, 5, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>673b60db7ecbdd53ec64a428</t>
   </si>
   <si>
+    <t>[2, 2, 5, 3, 6, 3, 5, 5, 0, 2]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 3, 5, 3, 7, 2, 4, 3]</t>
+  </si>
+  <si>
     <t>673c9f004222ed0a76db1ecd</t>
   </si>
   <si>
+    <t>[6, 5, 4, 4, 6, 4, 4, 4, 7, 6]</t>
+  </si>
+  <si>
+    <t>[4, 2, 4, 3, 6, 3, 3, 5, 6, 3]</t>
+  </si>
+  <si>
     <t>673d4b493a214d994150a956</t>
   </si>
   <si>
+    <t>[5, 2, 3, 0, 4, 6, 4, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2, 5, 5, 4, 3, 2, 0, 0]</t>
+  </si>
+  <si>
     <t>673dde98f57d09785e962bc3</t>
   </si>
   <si>
+    <t>[4, 6, 2, 4, 4, 5, 6, 4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[1, 4, 3, 5, 5, 4, 3, 3, 0, 0]</t>
+  </si>
+  <si>
     <t>673ebc6af07543c21446c953</t>
   </si>
   <si>
+    <t>[4, 5, 4, 3, 5, 4, 5, 3, 4, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 5, 4, 3, 6, 5, 3]</t>
+  </si>
+  <si>
     <t>673f29004145440ee4613bd6</t>
   </si>
   <si>
+    <t>[4, 4, 4, 3, 6, 5, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 5, 4, 3, 2, 5, 2, 5, 3, 0]</t>
+  </si>
+  <si>
     <t>673ff61610c14a8ce9713580</t>
   </si>
   <si>
+    <t>[5, 5, 2, 5, 2, 2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 6, 3, 5, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>67460cbb61e0f43f89d299dd</t>
   </si>
   <si>
+    <t>[4, 5, 4, 4, 4, 4, 4, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[8, 6, 5, 4, 6, 5, 1, 3, 4, 0]</t>
+  </si>
+  <si>
     <t>6747a1d263d16bfdbb80bedb</t>
   </si>
   <si>
+    <t>[4, 4, 4, 4, 1, 0, 2, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 4, 4, 5, 4, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>674a68444623c9fa2b30314f</t>
   </si>
   <si>
     <t>674bd245c8750a73d5966e55</t>
+  </si>
+  <si>
+    <t>[4, 6, 4, 3, 3, 4, 5, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>[7, 7, 4, 4, 4, 4, 3, 0, 0, 5]</t>
   </si>
   <si>
     <t>674db2b9d2706f0252f5ab4d</t>
@@ -854,17 +1679,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,16 +1711,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -909,16 +1743,25 @@
       <c r="G2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -932,16 +1775,25 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -955,16 +1807,25 @@
       <c r="G4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -978,16 +1839,25 @@
       <c r="G5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1001,16 +1871,25 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1024,16 +1903,25 @@
       <c r="G7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1047,16 +1935,25 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1070,13 +1967,22 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1090,16 +1996,25 @@
       <c r="G10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>6.9999999999999991</v>
@@ -1113,16 +2028,25 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>6.9999999999999991</v>
@@ -1136,16 +2060,25 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>6.0000000000000009</v>
@@ -1159,16 +2092,25 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1182,16 +2124,25 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1205,16 +2156,25 @@
       <c r="G15">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1228,16 +2188,25 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1251,10 +2220,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1268,16 +2246,19 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>5.9999999999999991</v>
@@ -1291,16 +2272,25 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1314,16 +2304,25 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1337,16 +2336,25 @@
       <c r="G21">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>6.0000000000000009</v>
@@ -1360,16 +2368,25 @@
       <c r="G22">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1383,16 +2400,25 @@
       <c r="G23">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -1406,10 +2432,19 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1424,15 +2459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1446,16 +2481,25 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>5.9999999999999991</v>
@@ -1469,10 +2513,19 @@
       <c r="G27">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1486,16 +2539,19 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -1509,16 +2565,25 @@
       <c r="G29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1532,16 +2597,25 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>11</v>
@@ -1555,16 +2629,25 @@
       <c r="G31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -1578,16 +2661,25 @@
       <c r="G32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>6.9999999999999991</v>
@@ -1601,16 +2693,25 @@
       <c r="G33">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>6.9999999999999991</v>
@@ -1624,16 +2725,25 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1647,16 +2757,25 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -1670,16 +2789,22 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -1693,16 +2818,25 @@
       <c r="G37">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -1716,16 +2850,25 @@
       <c r="G38">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>6.9999999999999991</v>
@@ -1739,16 +2882,22 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>14</v>
@@ -1762,16 +2911,25 @@
       <c r="G40">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1785,16 +2943,25 @@
       <c r="G41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1808,16 +2975,25 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -1831,16 +3007,25 @@
       <c r="G43">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>6.0000000000000009</v>
@@ -1854,13 +3039,22 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>6.9999999999999991</v>
@@ -1874,16 +3068,19 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>8.9999999999999982</v>
@@ -1897,16 +3094,25 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>6.9999999999999991</v>
@@ -1920,16 +3126,25 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>8.9999999999999982</v>
@@ -1943,16 +3158,25 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1966,16 +3190,25 @@
       <c r="G49">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -1989,16 +3222,25 @@
       <c r="G50">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" t="s">
+        <v>149</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>11</v>
@@ -2012,16 +3254,25 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>8.9999999999999982</v>
@@ -2035,16 +3286,25 @@
       <c r="G52">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -2058,16 +3318,25 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>8.9999999999999982</v>
@@ -2081,16 +3350,25 @@
       <c r="G54">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>12</v>
@@ -2104,16 +3382,25 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2127,16 +3414,25 @@
       <c r="G56">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" t="s">
+        <v>167</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>13</v>
@@ -2150,16 +3446,25 @@
       <c r="G57">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>169</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -2173,16 +3478,25 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>171</v>
+      </c>
+      <c r="I58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -2196,16 +3510,25 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>12</v>
@@ -2219,16 +3542,25 @@
       <c r="G60">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" t="s">
+        <v>178</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -2242,16 +3574,25 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>9</v>
@@ -2265,16 +3606,25 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>183</v>
+      </c>
+      <c r="I62" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -2288,16 +3638,25 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2311,16 +3670,25 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I64" t="s">
+        <v>190</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>13</v>
@@ -2334,16 +3702,25 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>12</v>
@@ -2357,16 +3734,25 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>195</v>
+      </c>
+      <c r="I66" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>14</v>
@@ -2380,16 +3766,25 @@
       <c r="G67">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>198</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2403,13 +3798,22 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>200</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -2423,16 +3827,25 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>203</v>
+      </c>
+      <c r="I69" t="s">
+        <v>204</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>9</v>
@@ -2446,16 +3859,25 @@
       <c r="G70">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -2469,16 +3891,25 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>209</v>
+      </c>
+      <c r="I71" t="s">
+        <v>210</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -2492,16 +3923,25 @@
       <c r="G72">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>212</v>
+      </c>
+      <c r="I72" t="s">
+        <v>213</v>
+      </c>
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>13</v>
@@ -2515,16 +3955,25 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>215</v>
+      </c>
+      <c r="I73" t="s">
+        <v>216</v>
+      </c>
+      <c r="J73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -2538,16 +3987,25 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" t="s">
+        <v>219</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>11</v>
@@ -2561,16 +4019,25 @@
       <c r="G75">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>221</v>
+      </c>
+      <c r="I75" t="s">
+        <v>222</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2584,16 +4051,25 @@
       <c r="G76">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>224</v>
+      </c>
+      <c r="I76" t="s">
+        <v>225</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -2607,16 +4083,25 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>227</v>
+      </c>
+      <c r="I77" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2630,16 +4115,25 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>230</v>
+      </c>
+      <c r="I78" t="s">
+        <v>231</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2653,16 +4147,25 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>233</v>
+      </c>
+      <c r="I79" t="s">
+        <v>234</v>
+      </c>
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>6.9999999999999991</v>
@@ -2676,16 +4179,25 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>236</v>
+      </c>
+      <c r="I80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>6.0000000000000009</v>
@@ -2699,16 +4211,25 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>239</v>
+      </c>
+      <c r="I81" t="s">
+        <v>240</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2722,16 +4243,25 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>242</v>
+      </c>
+      <c r="I82" t="s">
+        <v>243</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>12</v>
@@ -2745,16 +4275,25 @@
       <c r="G83">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83" t="s">
+        <v>246</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>6.9999999999999991</v>
@@ -2768,16 +4307,25 @@
       <c r="G84">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>248</v>
+      </c>
+      <c r="I84" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2791,16 +4339,25 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>251</v>
+      </c>
+      <c r="I85" t="s">
+        <v>252</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>8.9999999999999982</v>
@@ -2814,10 +4371,19 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" t="s">
+        <v>255</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -2831,16 +4397,19 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>11</v>
@@ -2854,16 +4423,25 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>258</v>
+      </c>
+      <c r="I88" t="s">
+        <v>259</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>9</v>
@@ -2877,16 +4455,25 @@
       <c r="G89">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>261</v>
+      </c>
+      <c r="I89" t="s">
+        <v>262</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2900,13 +4487,22 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>264</v>
+      </c>
+      <c r="I90" t="s">
+        <v>265</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>5.9999999999999991</v>
@@ -2920,16 +4516,25 @@
       <c r="G91">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>267</v>
+      </c>
+      <c r="I91" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2943,16 +4548,25 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>270</v>
+      </c>
+      <c r="I92" t="s">
+        <v>271</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>5.9999999999999991</v>
@@ -2966,10 +4580,19 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>273</v>
+      </c>
+      <c r="I93" t="s">
+        <v>274</v>
+      </c>
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2983,16 +4606,19 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>6.9999999999999991</v>
@@ -3006,16 +4632,25 @@
       <c r="G95">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>277</v>
+      </c>
+      <c r="I95" t="s">
+        <v>278</v>
+      </c>
+      <c r="J95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>12</v>
@@ -3029,16 +4664,25 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>280</v>
+      </c>
+      <c r="I96" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -3052,16 +4696,25 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>283</v>
+      </c>
+      <c r="I97" t="s">
+        <v>284</v>
+      </c>
+      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>10</v>
@@ -3075,16 +4728,25 @@
       <c r="G98">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>286</v>
+      </c>
+      <c r="I98" t="s">
+        <v>287</v>
+      </c>
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -3098,16 +4760,25 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>289</v>
+      </c>
+      <c r="I99" t="s">
+        <v>290</v>
+      </c>
+      <c r="J99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>12</v>
@@ -3121,16 +4792,25 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>292</v>
+      </c>
+      <c r="I100" t="s">
+        <v>293</v>
+      </c>
+      <c r="J100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>6.0000000000000009</v>
@@ -3144,16 +4824,25 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>295</v>
+      </c>
+      <c r="I101" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>11</v>
@@ -3167,16 +4856,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>298</v>
+      </c>
+      <c r="I102" t="s">
+        <v>299</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>10</v>
@@ -3190,16 +4888,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>301</v>
+      </c>
+      <c r="I103" t="s">
+        <v>302</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>20</v>
@@ -3213,16 +4920,25 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>304</v>
+      </c>
+      <c r="I104" t="s">
+        <v>305</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -3236,16 +4952,25 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>307</v>
+      </c>
+      <c r="I105" t="s">
+        <v>308</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -3259,16 +4984,25 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>310</v>
+      </c>
+      <c r="I106" t="s">
+        <v>311</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -3282,16 +5016,25 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>313</v>
+      </c>
+      <c r="I107" t="s">
+        <v>314</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>5.9999999999999991</v>
@@ -3305,16 +5048,25 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>316</v>
+      </c>
+      <c r="I108" t="s">
+        <v>317</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D109">
         <v>6.9999999999999991</v>
@@ -3328,13 +5080,22 @@
       <c r="G109">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>319</v>
+      </c>
+      <c r="I109" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D110">
         <v>12</v>
@@ -3348,16 +5109,25 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>321</v>
+      </c>
+      <c r="I110" t="s">
+        <v>322</v>
+      </c>
+      <c r="J110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>5.9999999999999991</v>
@@ -3371,16 +5141,25 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>324</v>
+      </c>
+      <c r="I111" t="s">
+        <v>325</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>13</v>
@@ -3394,16 +5173,25 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>327</v>
+      </c>
+      <c r="I112" t="s">
+        <v>328</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -3417,16 +5205,25 @@
       <c r="G113">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>330</v>
+      </c>
+      <c r="I113" t="s">
+        <v>331</v>
+      </c>
+      <c r="J113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -3440,16 +5237,22 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>333</v>
+      </c>
+      <c r="I114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115">
         <v>6.9999999999999991</v>
@@ -3463,16 +5266,25 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>336</v>
+      </c>
+      <c r="I115" t="s">
+        <v>337</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -3486,13 +5298,22 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>339</v>
+      </c>
+      <c r="I116" t="s">
+        <v>340</v>
+      </c>
+      <c r="J116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3506,16 +5327,25 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>342</v>
+      </c>
+      <c r="I117" t="s">
+        <v>343</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118">
         <v>5.9999999999999991</v>
@@ -3529,16 +5359,25 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>345</v>
+      </c>
+      <c r="I118" t="s">
+        <v>346</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119">
         <v>9</v>
@@ -3552,16 +5391,25 @@
       <c r="G119">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>348</v>
+      </c>
+      <c r="I119" t="s">
+        <v>349</v>
+      </c>
+      <c r="J119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -3575,16 +5423,25 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>351</v>
+      </c>
+      <c r="I120" t="s">
+        <v>174</v>
+      </c>
+      <c r="J120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -3598,16 +5455,25 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>353</v>
+      </c>
+      <c r="I121" t="s">
+        <v>354</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -3621,16 +5487,25 @@
       <c r="G122">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>356</v>
+      </c>
+      <c r="I122" t="s">
+        <v>357</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123">
         <v>10</v>
@@ -3644,16 +5519,25 @@
       <c r="G123">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>359</v>
+      </c>
+      <c r="I123" t="s">
+        <v>360</v>
+      </c>
+      <c r="J123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124">
         <v>6.0000000000000009</v>
@@ -3667,16 +5551,25 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>362</v>
+      </c>
+      <c r="I124" t="s">
+        <v>363</v>
+      </c>
+      <c r="J124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3690,16 +5583,25 @@
       <c r="G125">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>365</v>
+      </c>
+      <c r="I125" t="s">
+        <v>366</v>
+      </c>
+      <c r="J125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>4</v>
@@ -3713,16 +5615,25 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" t="s">
+        <v>368</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3736,16 +5647,25 @@
       <c r="G127">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>370</v>
+      </c>
+      <c r="I127" t="s">
+        <v>371</v>
+      </c>
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>15</v>
@@ -3759,16 +5679,25 @@
       <c r="G128">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>373</v>
+      </c>
+      <c r="I128" t="s">
+        <v>374</v>
+      </c>
+      <c r="J128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129">
         <v>6.0000000000000009</v>
@@ -3782,16 +5711,25 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>376</v>
+      </c>
+      <c r="I129" t="s">
+        <v>377</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130">
         <v>6.9999999999999991</v>
@@ -3805,16 +5743,25 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>379</v>
+      </c>
+      <c r="I130" t="s">
+        <v>380</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131">
         <v>4</v>
@@ -3828,16 +5775,25 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>382</v>
+      </c>
+      <c r="I131" t="s">
+        <v>383</v>
+      </c>
+      <c r="J131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -3851,16 +5807,25 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>385</v>
+      </c>
+      <c r="I132" t="s">
+        <v>386</v>
+      </c>
+      <c r="J132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>387</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>10</v>
@@ -3874,16 +5839,25 @@
       <c r="G133">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>388</v>
+      </c>
+      <c r="I133" t="s">
+        <v>389</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D134">
         <v>5</v>
@@ -3897,16 +5871,25 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>391</v>
+      </c>
+      <c r="I134" t="s">
+        <v>392</v>
+      </c>
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -3920,16 +5903,25 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>394</v>
+      </c>
+      <c r="I135" t="s">
+        <v>395</v>
+      </c>
+      <c r="J135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136">
         <v>16</v>
@@ -3943,16 +5935,25 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>397</v>
+      </c>
+      <c r="I136" t="s">
+        <v>398</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -3966,16 +5967,25 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>400</v>
+      </c>
+      <c r="I137" t="s">
+        <v>401</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -3989,16 +5999,25 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>403</v>
+      </c>
+      <c r="I138" t="s">
+        <v>404</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>405</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139">
         <v>5.9999999999999991</v>
@@ -4012,16 +6031,25 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>406</v>
+      </c>
+      <c r="I139" t="s">
+        <v>407</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>408</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -4035,16 +6063,25 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>409</v>
+      </c>
+      <c r="I140" t="s">
+        <v>410</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>411</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141">
         <v>12</v>
@@ -4058,16 +6095,25 @@
       <c r="G141">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>412</v>
+      </c>
+      <c r="I141" t="s">
+        <v>413</v>
+      </c>
+      <c r="J141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -4081,16 +6127,25 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>415</v>
+      </c>
+      <c r="I142" t="s">
+        <v>416</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143">
         <v>16</v>
@@ -4104,16 +6159,25 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>418</v>
+      </c>
+      <c r="I143" t="s">
+        <v>419</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D144">
         <v>12</v>
@@ -4127,16 +6191,25 @@
       <c r="G144">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>421</v>
+      </c>
+      <c r="I144" t="s">
+        <v>422</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>423</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -4150,10 +6223,19 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>424</v>
+      </c>
+      <c r="I145" t="s">
+        <v>425</v>
+      </c>
+      <c r="J145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4168,15 +6250,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D147">
         <v>6.9999999999999991</v>
@@ -4190,10 +6272,19 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>428</v>
+      </c>
+      <c r="I147" t="s">
+        <v>429</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -4208,9 +6299,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>431</v>
       </c>
       <c r="D149">
         <v>18</v>
@@ -4223,6 +6314,9 @@
       </c>
       <c r="G149">
         <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
